--- a/data/trans_orig/P16A05-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Clase-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2315,7 +2315,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4076,7 +4076,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5837,7 +5837,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (tasa de respuesta: 99,91%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2023 (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A05-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>15072</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8529</v>
+        <v>8254</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24821</v>
+        <v>24624</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03181198625075759</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01800206328812353</v>
+        <v>0.01742116524130433</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05238915510278112</v>
+        <v>0.05197457464054049</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -765,19 +765,19 @@
         <v>11139</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5801</v>
+        <v>5923</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19030</v>
+        <v>19140</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03632240014797972</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01891399049451522</v>
+        <v>0.01931355007221223</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06205157706098779</v>
+        <v>0.0624105554109751</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -786,19 +786,19 @@
         <v>26211</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17446</v>
+        <v>18289</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37926</v>
+        <v>39537</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03358435267595296</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02235400903972615</v>
+        <v>0.02343326998785087</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04859418431391808</v>
+        <v>0.05065862468547788</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>458704</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>448955</v>
+        <v>449152</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>465247</v>
+        <v>465522</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9681880137492425</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9476108448972189</v>
+        <v>0.9480254253594596</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9819979367118765</v>
+        <v>0.9825788347586957</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>287</v>
@@ -836,19 +836,19 @@
         <v>295541</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>287650</v>
+        <v>287540</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>300879</v>
+        <v>300757</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9636775998520203</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9379484229390117</v>
+        <v>0.9375894445890245</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9810860095054846</v>
+        <v>0.9806864499277878</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>728</v>
@@ -857,19 +857,19 @@
         <v>754246</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>742531</v>
+        <v>740920</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>763011</v>
+        <v>762168</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9664156473240471</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9514058156860821</v>
+        <v>0.9493413753145222</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9776459909602743</v>
+        <v>0.9765667300121491</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>5402</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1880</v>
+        <v>1884</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12570</v>
+        <v>12985</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01472168720462916</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005124894383947695</v>
+        <v>0.00513408281317461</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03425706719723899</v>
+        <v>0.03538811286127592</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -982,19 +982,19 @@
         <v>14876</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8742</v>
+        <v>8826</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23546</v>
+        <v>23350</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04000402752266548</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02350891868375954</v>
+        <v>0.02373479923552281</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06331958076889364</v>
+        <v>0.06279289462672012</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -1003,19 +1003,19 @@
         <v>20278</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12623</v>
+        <v>12371</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30863</v>
+        <v>30635</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02744722420995295</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01708559382989104</v>
+        <v>0.01674413230270178</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04177400694518995</v>
+        <v>0.04146658503875127</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>361532</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>354364</v>
+        <v>353949</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>365054</v>
+        <v>365050</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9852783127953708</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9657429328027617</v>
+        <v>0.9646118871387244</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9948751056160523</v>
+        <v>0.9948659171868255</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>348</v>
@@ -1053,19 +1053,19 @@
         <v>356989</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>348319</v>
+        <v>348515</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>363123</v>
+        <v>363039</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9599959724773345</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9366804192311063</v>
+        <v>0.9372071053732799</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9764910813162404</v>
+        <v>0.9762652007644772</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>693</v>
@@ -1074,19 +1074,19 @@
         <v>718521</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>707936</v>
+        <v>708164</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>726176</v>
+        <v>726428</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9725527757900471</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.95822599305481</v>
+        <v>0.9585334149612486</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9829144061701088</v>
+        <v>0.9832558676972982</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>13886</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8285</v>
+        <v>8250</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23165</v>
+        <v>23308</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02560131473504496</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01527482417867248</v>
+        <v>0.01521025475684525</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0427084716721625</v>
+        <v>0.04297360642878326</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1199,19 +1199,19 @@
         <v>7880</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3045</v>
+        <v>3876</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14395</v>
+        <v>15375</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04696644211353611</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01815019780511645</v>
+        <v>0.02310005836468185</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08579743088739897</v>
+        <v>0.09163503486410758</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -1220,19 +1220,19 @@
         <v>21766</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14719</v>
+        <v>13700</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32124</v>
+        <v>31747</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03064894666894078</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02072573893735647</v>
+        <v>0.01929148208002643</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04523452378867939</v>
+        <v>0.04470380860989464</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>528503</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>519224</v>
+        <v>519081</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>534104</v>
+        <v>534139</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.974398685264955</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9572915283278388</v>
+        <v>0.9570263935712174</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9847251758213276</v>
+        <v>0.9847897452431548</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>156</v>
@@ -1270,19 +1270,19 @@
         <v>159902</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>153387</v>
+        <v>152407</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>164737</v>
+        <v>163906</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9530335578864639</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9142025691126009</v>
+        <v>0.9083649651358924</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9818498021948835</v>
+        <v>0.9768999416353181</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>673</v>
@@ -1291,19 +1291,19 @@
         <v>688405</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>678047</v>
+        <v>678424</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>695452</v>
+        <v>696471</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9693510533310592</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9547654762113206</v>
+        <v>0.9552961913901054</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9792742610626435</v>
+        <v>0.9807085179199735</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>31968</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22347</v>
+        <v>22295</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44126</v>
+        <v>44755</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02581564932542882</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01804598224400351</v>
+        <v>0.01800386040223956</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03563313641770455</v>
+        <v>0.03614105764182617</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -1416,19 +1416,19 @@
         <v>37277</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26840</v>
+        <v>26269</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50465</v>
+        <v>49469</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05218792031408839</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0375762600691486</v>
+        <v>0.03677669692641339</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07065149201497888</v>
+        <v>0.06925629547541989</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -1437,19 +1437,19 @@
         <v>69245</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54621</v>
+        <v>54762</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85536</v>
+        <v>86820</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0354628560987138</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0279731012710041</v>
+        <v>0.02804551506070427</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04380561893913557</v>
+        <v>0.04446353323845843</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1206366</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1194208</v>
+        <v>1193579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1215987</v>
+        <v>1216039</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9741843506745712</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9643668635822955</v>
+        <v>0.9638589423581733</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9819540177559966</v>
+        <v>0.98199613959776</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>657</v>
@@ -1487,19 +1487,19 @@
         <v>677008</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>663820</v>
+        <v>664816</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>687445</v>
+        <v>688016</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9478120796859116</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9293485079850211</v>
+        <v>0.9307437045245801</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9624237399308513</v>
+        <v>0.9632233030735865</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1848</v>
@@ -1508,19 +1508,19 @@
         <v>1883375</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1867084</v>
+        <v>1865800</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1897999</v>
+        <v>1897858</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9645371439012862</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9561943810608644</v>
+        <v>0.9555364667615422</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9720268987289958</v>
+        <v>0.9719544849392957</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>13807</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8214</v>
+        <v>7701</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24001</v>
+        <v>21812</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0395003360648592</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02349896130679414</v>
+        <v>0.02203154036963049</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0686645376854715</v>
+        <v>0.06240130038296538</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -1633,19 +1633,19 @@
         <v>38963</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27432</v>
+        <v>28467</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53169</v>
+        <v>53435</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06850633907346709</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0482315354463355</v>
+        <v>0.05005099601379943</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09348310667287063</v>
+        <v>0.09395071956336223</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -1654,19 +1654,19 @@
         <v>52770</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40119</v>
+        <v>40042</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70202</v>
+        <v>67871</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05746550680165399</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0436888574693187</v>
+        <v>0.04360486966479255</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07644820877290148</v>
+        <v>0.07391022234583375</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>335730</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>325536</v>
+        <v>327725</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>341323</v>
+        <v>341836</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9604996639351407</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9313354623145282</v>
+        <v>0.9375986996170346</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9765010386932059</v>
+        <v>0.9779684596303695</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>501</v>
@@ -1704,19 +1704,19 @@
         <v>529789</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>515583</v>
+        <v>515317</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>541320</v>
+        <v>540285</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.931493660926533</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9065168933271289</v>
+        <v>0.9060492804366375</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9517684645536645</v>
+        <v>0.9499490039862004</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>826</v>
@@ -1725,19 +1725,19 @@
         <v>865519</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>848087</v>
+        <v>850418</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>878170</v>
+        <v>878247</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.942534493198346</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9235517912270989</v>
+        <v>0.9260897776541662</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9563111425306814</v>
+        <v>0.9563951303352075</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>4417</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>986</v>
+        <v>1614</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11115</v>
+        <v>11150</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01481254123247843</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003306496157827393</v>
+        <v>0.005413295481289003</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03727388756161069</v>
+        <v>0.0373911207104838</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>67</v>
@@ -1850,19 +1850,19 @@
         <v>68929</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52873</v>
+        <v>54667</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84879</v>
+        <v>88203</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05519807749291922</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04234054984674615</v>
+        <v>0.04377734437900437</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06797045001511248</v>
+        <v>0.07063209006156483</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -1871,19 +1871,19 @@
         <v>73346</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>59153</v>
+        <v>57276</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>91167</v>
+        <v>90816</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0474131404906856</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03823792448173467</v>
+        <v>0.03702509772515437</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05893286969345691</v>
+        <v>0.05870601115377202</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>293784</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>287086</v>
+        <v>287051</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>297215</v>
+        <v>296587</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9851874587675216</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9627261124383892</v>
+        <v>0.9626088792895161</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9966935038421726</v>
+        <v>0.994586704518711</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1171</v>
@@ -1921,19 +1921,19 @@
         <v>1179831</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1163881</v>
+        <v>1160557</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1195887</v>
+        <v>1194093</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9448019225070807</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9320295499848874</v>
+        <v>0.9293679099384354</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9576594501532535</v>
+        <v>0.9562226556209957</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1473</v>
@@ -1942,19 +1942,19 @@
         <v>1473614</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1455793</v>
+        <v>1456144</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1487807</v>
+        <v>1489684</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9525868595093144</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9410671303065431</v>
+        <v>0.9412939888462279</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9617620755182654</v>
+        <v>0.9629749022748455</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>84552</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>67978</v>
+        <v>68491</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>103359</v>
+        <v>104513</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02586339494718229</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02079359183166954</v>
+        <v>0.02095054412516855</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03161615856056517</v>
+        <v>0.03196934736103166</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>176</v>
@@ -2067,19 +2067,19 @@
         <v>179065</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>156938</v>
+        <v>156318</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>207410</v>
+        <v>208900</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05300719667115261</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0464571279317566</v>
+        <v>0.04627358766445881</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06139796448278879</v>
+        <v>0.0618391524191273</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>261</v>
@@ -2088,19 +2088,19 @@
         <v>263617</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>232650</v>
+        <v>231797</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>296317</v>
+        <v>299306</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03965774541479722</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03499917094734441</v>
+        <v>0.03487082259736093</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04457710745937224</v>
+        <v>0.04502671382216241</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3184620</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3165813</v>
+        <v>3164659</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3201194</v>
+        <v>3200681</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9741366050528177</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.968383841439435</v>
+        <v>0.9680306526389686</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9792064081683305</v>
+        <v>0.9790494558748317</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3120</v>
@@ -2138,19 +2138,19 @@
         <v>3199059</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3170714</v>
+        <v>3169224</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3221186</v>
+        <v>3221806</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9469928033288474</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9386020355172112</v>
+        <v>0.9381608475808729</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9535428720682434</v>
+        <v>0.9537264123355412</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6241</v>
@@ -2159,19 +2159,19 @@
         <v>6383679</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6350979</v>
+        <v>6347990</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6414646</v>
+        <v>6415499</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9603422545852027</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9554228925406278</v>
+        <v>0.9549732861778376</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9650008290526556</v>
+        <v>0.9651291774026391</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>14027</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7640</v>
+        <v>7297</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26075</v>
+        <v>25217</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.032082509637548</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01747433860488313</v>
+        <v>0.01668912928509994</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05963914302170385</v>
+        <v>0.05767781831918398</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2526,19 +2526,19 @@
         <v>10790</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5674</v>
+        <v>5123</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18973</v>
+        <v>19294</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03431445449274033</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01804318095265493</v>
+        <v>0.01629034094575027</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06033712900051495</v>
+        <v>0.06135816862878196</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -2547,19 +2547,19 @@
         <v>24817</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15265</v>
+        <v>15611</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36539</v>
+        <v>37939</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03301622947749479</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02030769828826095</v>
+        <v>0.02076907462390139</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04861010626984565</v>
+        <v>0.05047326330992739</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>423184</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>411136</v>
+        <v>411994</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>429571</v>
+        <v>429914</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.967917490362452</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9403608569782962</v>
+        <v>0.9423221816808161</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9825256613951171</v>
+        <v>0.9833108707149002</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>273</v>
@@ -2597,19 +2597,19 @@
         <v>303664</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>295481</v>
+        <v>295160</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308780</v>
+        <v>309331</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9656855455072597</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9396628709994852</v>
+        <v>0.9386418313712184</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9819568190473453</v>
+        <v>0.9837096590542497</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>666</v>
@@ -2618,19 +2618,19 @@
         <v>726848</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>715126</v>
+        <v>713726</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>736400</v>
+        <v>736054</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9669837705225052</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9513898937301545</v>
+        <v>0.9495267366900727</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9796923017117393</v>
+        <v>0.9792309253760987</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>15994</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7562</v>
+        <v>8393</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26909</v>
+        <v>27495</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03835356362040884</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01813451581455741</v>
+        <v>0.02012716806003082</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0645266931530767</v>
+        <v>0.0659318100742613</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -2743,19 +2743,19 @@
         <v>17816</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11058</v>
+        <v>10993</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28415</v>
+        <v>27104</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05313337389682589</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03297780294854299</v>
+        <v>0.03278288393787072</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08473997008468748</v>
+        <v>0.08083083040534514</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -2764,19 +2764,19 @@
         <v>33811</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22510</v>
+        <v>23123</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47568</v>
+        <v>47873</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04494093580079216</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02992076199972575</v>
+        <v>0.03073472097373472</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06322764795634397</v>
+        <v>0.06363320465668297</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>401024</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>390109</v>
+        <v>389523</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>409456</v>
+        <v>408625</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9616464363795911</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9354733068469242</v>
+        <v>0.9340681899257385</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9818654841854427</v>
+        <v>0.9798728319399691</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>286</v>
@@ -2814,19 +2814,19 @@
         <v>317499</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>306900</v>
+        <v>308211</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>324257</v>
+        <v>324322</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9468666261031741</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9152600299153125</v>
+        <v>0.9191691695946549</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.967022197051457</v>
+        <v>0.9672171160621292</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>647</v>
@@ -2835,19 +2835,19 @@
         <v>718522</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>704765</v>
+        <v>704460</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>729823</v>
+        <v>729210</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9550590641992078</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9367723520436556</v>
+        <v>0.936366795343317</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9700792380002738</v>
+        <v>0.9692652790262654</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>29594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19312</v>
+        <v>19614</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45203</v>
+        <v>43202</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04709882644313374</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03073526396513397</v>
+        <v>0.03121688268869963</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07194232041539879</v>
+        <v>0.06875767157994321</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -2960,19 +2960,19 @@
         <v>24856</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16435</v>
+        <v>16440</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36098</v>
+        <v>35689</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09593728838534507</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06343266760927257</v>
+        <v>0.06345148518820058</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1393284801334798</v>
+        <v>0.1377490750856339</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -2981,19 +2981,19 @@
         <v>54450</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41388</v>
+        <v>41002</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70218</v>
+        <v>71512</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06135755814976308</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04663885906322839</v>
+        <v>0.04620378335922723</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07912647720047569</v>
+        <v>0.08058447789462993</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>598735</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>583126</v>
+        <v>585127</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>609017</v>
+        <v>608715</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9529011735568662</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9280576795846012</v>
+        <v>0.9312423284200574</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.969264736034866</v>
+        <v>0.9687831173113006</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>219</v>
@@ -3031,19 +3031,19 @@
         <v>234232</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>222990</v>
+        <v>223399</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>242653</v>
+        <v>242648</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9040627116146549</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8606715198665209</v>
+        <v>0.8622509249143662</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9365673323907274</v>
+        <v>0.9365485148117995</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>784</v>
@@ -3052,19 +3052,19 @@
         <v>832967</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>817199</v>
+        <v>815905</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>846029</v>
+        <v>846415</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9386424418502369</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9208735227995242</v>
+        <v>0.9194155221053699</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9533611409367716</v>
+        <v>0.9537962166407727</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>35066</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23141</v>
+        <v>23879</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49785</v>
+        <v>49002</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03029957268883349</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01999526653573625</v>
+        <v>0.02063281752542838</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04301751211572546</v>
+        <v>0.04234135449241441</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -3177,19 +3177,19 @@
         <v>51883</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37915</v>
+        <v>38179</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67467</v>
+        <v>67054</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06776436294749094</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04952102802693264</v>
+        <v>0.04986519439190475</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08811832699811151</v>
+        <v>0.08757870859077505</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -3198,19 +3198,19 @@
         <v>86950</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>69868</v>
+        <v>69798</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107778</v>
+        <v>106666</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.045216516211527</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03633335410470252</v>
+        <v>0.03629692573449769</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05604777723100036</v>
+        <v>0.05546952432251644</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1122249</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1107530</v>
+        <v>1108313</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1134174</v>
+        <v>1133436</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9697004273111665</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.956982487884275</v>
+        <v>0.9576586455075859</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.980004733464264</v>
+        <v>0.9793671824745719</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>663</v>
@@ -3248,19 +3248,19 @@
         <v>713760</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>698176</v>
+        <v>698589</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>727728</v>
+        <v>727464</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.932235637052509</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9118816730018885</v>
+        <v>0.912421291409225</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9504789719730673</v>
+        <v>0.9501348056080953</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1713</v>
@@ -3269,19 +3269,19 @@
         <v>1836009</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1815181</v>
+        <v>1816293</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1853091</v>
+        <v>1853161</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.954783483788473</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9439522227689995</v>
+        <v>0.9445304756774827</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9636666458952973</v>
+        <v>0.9637030742655021</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>14181</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8190</v>
+        <v>7896</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23478</v>
+        <v>22626</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02777342304076921</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01603923848796284</v>
+        <v>0.01546493470500937</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04598228383182051</v>
+        <v>0.0443135672152898</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -3394,19 +3394,19 @@
         <v>64511</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49450</v>
+        <v>48874</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81355</v>
+        <v>80822</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08506604842058528</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06520582013607155</v>
+        <v>0.06444563602682259</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1072768444192277</v>
+        <v>0.1065729595828876</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>74</v>
@@ -3415,19 +3415,19 @@
         <v>78692</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62129</v>
+        <v>63070</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>97743</v>
+        <v>97137</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06201307270392323</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04896052451410943</v>
+        <v>0.04970222859796397</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07702603977928006</v>
+        <v>0.07654801416150595</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>496415</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>487118</v>
+        <v>487970</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>502406</v>
+        <v>502700</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9722265769592308</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9540177161681795</v>
+        <v>0.9556864327847102</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9839607615120373</v>
+        <v>0.9845350652949907</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>640</v>
@@ -3465,19 +3465,19 @@
         <v>693857</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>677013</v>
+        <v>677546</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>708918</v>
+        <v>709494</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9149339515794147</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8927231555807723</v>
+        <v>0.893427040417112</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9347941798639284</v>
+        <v>0.9355543639731774</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1113</v>
@@ -3486,19 +3486,19 @@
         <v>1190272</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1171221</v>
+        <v>1171827</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1206835</v>
+        <v>1205894</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9379869272960768</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9229739602207199</v>
+        <v>0.9234519858384941</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9510394754858905</v>
+        <v>0.950297771402036</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>3913</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12416</v>
+        <v>12807</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01471762253980233</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003524680578483455</v>
+        <v>0.003551025578128125</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04670525894635102</v>
+        <v>0.04817524209819305</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>76</v>
@@ -3611,19 +3611,19 @@
         <v>81984</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66706</v>
+        <v>64988</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>100690</v>
+        <v>100895</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07411083867529941</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0602997216999718</v>
+        <v>0.05874657123131457</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09101994089278032</v>
+        <v>0.0912054282623621</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -3632,19 +3632,19 @@
         <v>85897</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>69055</v>
+        <v>70031</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>105565</v>
+        <v>105912</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06260338374188833</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05032891455392603</v>
+        <v>0.05104006652950689</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07693771880016866</v>
+        <v>0.07719092919302213</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>261928</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253425</v>
+        <v>253034</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264904</v>
+        <v>264897</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9852823774601976</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9532947410536485</v>
+        <v>0.9518247579018065</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9964753194215166</v>
+        <v>0.9964489744218719</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>965</v>
@@ -3682,19 +3682,19 @@
         <v>1024256</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1005550</v>
+        <v>1005345</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1039534</v>
+        <v>1041252</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9258891613247006</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9089800591072197</v>
+        <v>0.9087945717376379</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9397002783000282</v>
+        <v>0.9412534287686855</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1226</v>
@@ -3703,19 +3703,19 @@
         <v>1286184</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1266516</v>
+        <v>1266169</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1303026</v>
+        <v>1302050</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9373966162581117</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9230622811998312</v>
+        <v>0.9228090708069777</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9496710854460739</v>
+        <v>0.9489599334704931</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>112774</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>89652</v>
+        <v>90201</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>136058</v>
+        <v>137314</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03301053087533132</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02624223208186747</v>
+        <v>0.02640314880291459</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03982588758619065</v>
+        <v>0.04019366993560167</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>234</v>
@@ -3828,19 +3828,19 @@
         <v>251842</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>221751</v>
+        <v>222345</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>282326</v>
+        <v>285840</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07115972862902718</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06265738770632308</v>
+        <v>0.06282507280207064</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0797732850041846</v>
+        <v>0.08076615125350492</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>330</v>
@@ -3849,19 +3849,19 @@
         <v>364616</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>326760</v>
+        <v>326658</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>404839</v>
+        <v>406075</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05242189095476741</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04697917265224684</v>
+        <v>0.04696457097136147</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05820477249510467</v>
+        <v>0.05838250020415935</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3303536</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3280252</v>
+        <v>3278996</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3326658</v>
+        <v>3326109</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9669894691246687</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9601741124138093</v>
+        <v>0.9598063300643983</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9737577679181325</v>
+        <v>0.9735968511970854</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3046</v>
@@ -3899,19 +3899,19 @@
         <v>3287266</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3256782</v>
+        <v>3253268</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3317357</v>
+        <v>3316763</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9288402713709728</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9202267149958154</v>
+        <v>0.9192338487464952</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9373426122936771</v>
+        <v>0.9371749271979294</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6149</v>
@@ -3920,19 +3920,19 @@
         <v>6590802</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6550579</v>
+        <v>6549343</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6628658</v>
+        <v>6628760</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9475781090452325</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9417952275048955</v>
+        <v>0.9416174997958403</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9530208273477533</v>
+        <v>0.9530354290286384</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>17602</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10874</v>
+        <v>10407</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27259</v>
+        <v>26964</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04102047642424328</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02534290099145606</v>
+        <v>0.02425353900121181</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06352644277586188</v>
+        <v>0.0628394332624623</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -4287,19 +4287,19 @@
         <v>11115</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5679</v>
+        <v>5817</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18226</v>
+        <v>19502</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03202578953384443</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01636232141212945</v>
+        <v>0.01676232380690036</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05251498804725879</v>
+        <v>0.05619202233349625</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -4308,19 +4308,19 @@
         <v>28716</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19448</v>
+        <v>19145</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40411</v>
+        <v>40330</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03699849276397697</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0250566348244359</v>
+        <v>0.02466693463729768</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05206606186513586</v>
+        <v>0.05196226548179108</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>411490</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>401833</v>
+        <v>402128</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>418218</v>
+        <v>418685</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9589795235757568</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9364735572241383</v>
+        <v>0.9371605667375378</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9746570990085441</v>
+        <v>0.9757464609987881</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>321</v>
@@ -4358,19 +4358,19 @@
         <v>335940</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>328829</v>
+        <v>327553</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>341376</v>
+        <v>341238</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9679742104661556</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9474850119527412</v>
+        <v>0.9438079776665038</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9836376785878707</v>
+        <v>0.9832376761930997</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>700</v>
@@ -4379,19 +4379,19 @@
         <v>747431</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>735736</v>
+        <v>735817</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>756699</v>
+        <v>757002</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9630015072360231</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9479339381348638</v>
+        <v>0.9480377345182088</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9749433651755641</v>
+        <v>0.9753330653627023</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>11045</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5444</v>
+        <v>5517</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20280</v>
+        <v>19305</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02927957824182692</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01443041729813431</v>
+        <v>0.01462617150619194</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0537605931359759</v>
+        <v>0.05117604501088008</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -4504,19 +4504,19 @@
         <v>15066</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8696</v>
+        <v>8666</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26739</v>
+        <v>24898</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0404707136320728</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02335941035896687</v>
+        <v>0.0232788919095427</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07182696322141807</v>
+        <v>0.06688122026510196</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -4525,19 +4525,19 @@
         <v>26111</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16036</v>
+        <v>16558</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37818</v>
+        <v>39513</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03483816274473481</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02139582626616888</v>
+        <v>0.02209160673681393</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0504572360437787</v>
+        <v>0.05271871907135203</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>366182</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>356947</v>
+        <v>357922</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>371783</v>
+        <v>371710</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9707204217581731</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9462394068640241</v>
+        <v>0.94882395498912</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9855695827018657</v>
+        <v>0.9853738284938081</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>339</v>
@@ -4575,19 +4575,19 @@
         <v>357207</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>345534</v>
+        <v>347375</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>363577</v>
+        <v>363607</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9595292863679272</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9281730367785817</v>
+        <v>0.9331187797348977</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9766405896410332</v>
+        <v>0.9767211080904571</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>683</v>
@@ -4596,19 +4596,19 @@
         <v>723389</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>711682</v>
+        <v>709987</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>733464</v>
+        <v>732942</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9651618372552652</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9495427639562212</v>
+        <v>0.9472812809286482</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9786041737338311</v>
+        <v>0.9779083932631862</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>15076</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8853</v>
+        <v>8094</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24234</v>
+        <v>23226</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02888623647766115</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01696310386412092</v>
+        <v>0.01550751760134583</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04643208442475273</v>
+        <v>0.0445012607528369</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -4721,19 +4721,19 @@
         <v>15090</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8265</v>
+        <v>8498</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23615</v>
+        <v>23695</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09083353709613132</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04975007543337322</v>
+        <v>0.05115649220810655</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1421532835490275</v>
+        <v>0.1426344291589133</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -4742,19 +4742,19 @@
         <v>30166</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20782</v>
+        <v>20551</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43167</v>
+        <v>42399</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04384308740623633</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03020447524093525</v>
+        <v>0.0298697480707971</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06273893542397624</v>
+        <v>0.06162321356631379</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>506838</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>497680</v>
+        <v>498688</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>513061</v>
+        <v>513820</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9711137635223388</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9535679155752473</v>
+        <v>0.9554987392471631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9830368961358791</v>
+        <v>0.9844924823986542</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>139</v>
@@ -4792,19 +4792,19 @@
         <v>151033</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>142508</v>
+        <v>142428</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>157858</v>
+        <v>157625</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9091664629038687</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8578467164509721</v>
+        <v>0.8573655708410867</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9502499245666266</v>
+        <v>0.9488435077918934</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>626</v>
@@ -4813,19 +4813,19 @@
         <v>657870</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644869</v>
+        <v>645637</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>667254</v>
+        <v>667485</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9561569125937637</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.937261064576024</v>
+        <v>0.9383767864336863</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9697955247590651</v>
+        <v>0.970130251929203</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>42649</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30699</v>
+        <v>31044</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57979</v>
+        <v>59098</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0370978625142073</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02670361129695704</v>
+        <v>0.02700347718357451</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05043229694622897</v>
+        <v>0.05140600987788539</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -4938,19 +4938,19 @@
         <v>63323</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48983</v>
+        <v>49026</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81043</v>
+        <v>79500</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0766734705259437</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05931067712621616</v>
+        <v>0.05936190369579104</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09813023116416326</v>
+        <v>0.0962619188579005</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -4959,19 +4959,19 @@
         <v>105972</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86146</v>
+        <v>87335</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>128863</v>
+        <v>127880</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05364268854152665</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04360707288711252</v>
+        <v>0.04420881797503225</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06523001853336102</v>
+        <v>0.06473253352222985</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1106989</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1091659</v>
+        <v>1090540</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1118939</v>
+        <v>1118594</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9629021374857927</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9495677030537716</v>
+        <v>0.9485939901221146</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9732963887030432</v>
+        <v>0.9729965228164253</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>740</v>
@@ -5009,19 +5009,19 @@
         <v>762553</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>744833</v>
+        <v>746376</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>776893</v>
+        <v>776850</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9233265294740562</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9018697688358367</v>
+        <v>0.9037380811420993</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9406893228737838</v>
+        <v>0.9406380963042089</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1804</v>
@@ -5030,19 +5030,19 @@
         <v>1869542</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1846651</v>
+        <v>1847634</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1889368</v>
+        <v>1888179</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9463573114584733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9347699814666398</v>
+        <v>0.9352674664777697</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9563929271128875</v>
+        <v>0.9557911820249677</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>26715</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17782</v>
+        <v>18467</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37903</v>
+        <v>39308</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04303961894566068</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02864853828735168</v>
+        <v>0.02975159085549541</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06106390854963226</v>
+        <v>0.06332774315470557</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>79</v>
@@ -5155,19 +5155,19 @@
         <v>85288</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67375</v>
+        <v>69725</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>103568</v>
+        <v>103913</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1155276179820496</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09126330593374787</v>
+        <v>0.09444665937272682</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1402898635846573</v>
+        <v>0.1407567927508047</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>106</v>
@@ -5176,19 +5176,19 @@
         <v>112003</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>92760</v>
+        <v>92393</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>131295</v>
+        <v>136073</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0824184329908038</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06825821756845613</v>
+        <v>0.0679886484285154</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09661492241197323</v>
+        <v>0.100131055303816</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>593991</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>582803</v>
+        <v>581398</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>602924</v>
+        <v>602239</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9569603810543393</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9389360914503676</v>
+        <v>0.9366722568452953</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9713514617126482</v>
+        <v>0.9702484091445046</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>620</v>
@@ -5226,19 +5226,19 @@
         <v>652956</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>634676</v>
+        <v>634331</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>670869</v>
+        <v>668519</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8844723820179504</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8597101364153427</v>
+        <v>0.8592432072491952</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9087366940662521</v>
+        <v>0.9055533406272731</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1190</v>
@@ -5247,19 +5247,19 @@
         <v>1246947</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1227655</v>
+        <v>1222877</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1266190</v>
+        <v>1266557</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9175815670091962</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9033850775880268</v>
+        <v>0.8998689446961838</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9317417824315438</v>
+        <v>0.9320113515714845</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>5078</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1861</v>
+        <v>1951</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11622</v>
+        <v>11423</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01768465724246468</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006479427895633094</v>
+        <v>0.006794036373650918</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04047519219972033</v>
+        <v>0.03977987540247271</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -5372,19 +5372,19 @@
         <v>79567</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61836</v>
+        <v>63125</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>98614</v>
+        <v>97644</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07353488423252449</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05714798912336581</v>
+        <v>0.0583398369094436</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09113879894171135</v>
+        <v>0.09024160487728321</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -5393,19 +5393,19 @@
         <v>84645</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66174</v>
+        <v>68497</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>105000</v>
+        <v>108679</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06182185979576271</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04833137274503529</v>
+        <v>0.05002829706112228</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07668880792321921</v>
+        <v>0.07937618491128784</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>282067</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>275523</v>
+        <v>275722</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>285284</v>
+        <v>285194</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9823153427575353</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9595248078002804</v>
+        <v>0.9602201245975278</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9935205721043671</v>
+        <v>0.9932059636263492</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>922</v>
@@ -5443,19 +5443,19 @@
         <v>1002458</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>983411</v>
+        <v>984381</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1020189</v>
+        <v>1018900</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9264651157674755</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9088612010582886</v>
+        <v>0.9097583951227167</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9428520108766342</v>
+        <v>0.9416601630905564</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1189</v>
@@ -5464,19 +5464,19 @@
         <v>1284525</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1264170</v>
+        <v>1260491</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1302996</v>
+        <v>1300673</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9381781402042373</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9233111920767808</v>
+        <v>0.9206238150887124</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9516686272549645</v>
+        <v>0.9499717029388779</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>118165</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>96870</v>
+        <v>99783</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>139801</v>
+        <v>141551</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03490093429973935</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02861123495981599</v>
+        <v>0.02947164166633348</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04129124641995916</v>
+        <v>0.04180807946910683</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>245</v>
@@ -5589,19 +5589,19 @@
         <v>269447</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>237997</v>
+        <v>236497</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>304604</v>
+        <v>302691</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07629619269215275</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06739088873386979</v>
+        <v>0.06696599026111544</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08625122314215032</v>
+        <v>0.08570947913649672</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>358</v>
@@ -5610,19 +5610,19 @@
         <v>387612</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>351482</v>
+        <v>350931</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>431973</v>
+        <v>430749</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05603503897850423</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0508118598821278</v>
+        <v>0.05073222583280109</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06244803387070379</v>
+        <v>0.0622710902006223</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3267557</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3245921</v>
+        <v>3244171</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3288852</v>
+        <v>3285939</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9650990657002606</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9587087535800404</v>
+        <v>0.9581919205308933</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9713887650401838</v>
+        <v>0.970528358333667</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3081</v>
@@ -5660,19 +5660,19 @@
         <v>3262149</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3226992</v>
+        <v>3228905</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3293599</v>
+        <v>3295099</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9237038073078473</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9137487768578496</v>
+        <v>0.9142905208635034</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9326091112661301</v>
+        <v>0.9330340097388845</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6192</v>
@@ -5681,19 +5681,19 @@
         <v>6529706</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6485345</v>
+        <v>6486569</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6565836</v>
+        <v>6566387</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9439649610214957</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9375519661292965</v>
+        <v>0.937728909799378</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9491881401178726</v>
+        <v>0.9492677741671991</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>19158</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12203</v>
+        <v>12244</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28993</v>
+        <v>29732</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03479321785599526</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02216241122452119</v>
+        <v>0.0222364338125409</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05265610508048635</v>
+        <v>0.0539975001243681</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -6048,19 +6048,19 @@
         <v>15162</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9704</v>
+        <v>9463</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23868</v>
+        <v>23118</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03104423161409212</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01986780542932061</v>
+        <v>0.01937599510298835</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04886880967964913</v>
+        <v>0.04733228879355026</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -6069,19 +6069,19 @@
         <v>34320</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25390</v>
+        <v>24919</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46565</v>
+        <v>45774</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03303095191016354</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02443670323987163</v>
+        <v>0.02398336319405136</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04481607900378514</v>
+        <v>0.04405453109490461</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>531460</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>521625</v>
+        <v>520886</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>538415</v>
+        <v>538374</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9652067821440048</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.947343894919513</v>
+        <v>0.9460024998756327</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9778375887754788</v>
+        <v>0.9777635661874596</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>664</v>
@@ -6119,19 +6119,19 @@
         <v>473249</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>464543</v>
+        <v>465293</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>478707</v>
+        <v>478948</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9689557683859079</v>
+        <v>0.9689557683859078</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9511311903203509</v>
+        <v>0.95266771120645</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9801321945706793</v>
+        <v>0.9806240048970117</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1196</v>
@@ -6140,19 +6140,19 @@
         <v>1004709</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>992464</v>
+        <v>993255</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1013639</v>
+        <v>1014110</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9669690480898366</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9551839209962149</v>
+        <v>0.9559454689050955</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9755632967601285</v>
+        <v>0.9760166368059486</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>14748</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8485</v>
+        <v>8330</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23121</v>
+        <v>24011</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03052063554822595</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01756044313625397</v>
+        <v>0.01723786377289626</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04784760231016604</v>
+        <v>0.04969103893658898</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -6265,19 +6265,19 @@
         <v>26253</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18693</v>
+        <v>19687</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36066</v>
+        <v>37279</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06204191196865258</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04417573569530093</v>
+        <v>0.0465253126975145</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08523276421923021</v>
+        <v>0.08809906880624535</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -6286,19 +6286,19 @@
         <v>41001</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30796</v>
+        <v>30771</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53560</v>
+        <v>54067</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0452367267649874</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03397762698462418</v>
+        <v>0.03395023654731479</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05909397585839059</v>
+        <v>0.05965334586090668</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>468464</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460091</v>
+        <v>459201</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>474727</v>
+        <v>474882</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9694793644517742</v>
+        <v>0.969479364451774</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.952152397689834</v>
+        <v>0.950308961063411</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9824395568637461</v>
+        <v>0.9827621362271037</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>551</v>
@@ -6336,19 +6336,19 @@
         <v>396890</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>387077</v>
+        <v>385864</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>404450</v>
+        <v>403456</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9379580880313475</v>
+        <v>0.9379580880313473</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.91476723578077</v>
+        <v>0.9119009311937547</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9558242643046995</v>
+        <v>0.9534746873024855</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1016</v>
@@ -6357,19 +6357,19 @@
         <v>865354</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>852795</v>
+        <v>852288</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>875559</v>
+        <v>875584</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9547632732350125</v>
+        <v>0.9547632732350126</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9409060241416094</v>
+        <v>0.9403466541390935</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9660223730153757</v>
+        <v>0.9660497634526855</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>27845</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18702</v>
+        <v>19115</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39204</v>
+        <v>39979</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.059043013817547</v>
+        <v>0.05904301381754699</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03965457634973975</v>
+        <v>0.04053056280409389</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08312716665750577</v>
+        <v>0.08477121992759801</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -6482,19 +6482,19 @@
         <v>19636</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13057</v>
+        <v>12973</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27107</v>
+        <v>27267</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1051081403239346</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0698910770521719</v>
+        <v>0.06943900139737796</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.145095278195871</v>
+        <v>0.1459535801547875</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -6503,19 +6503,19 @@
         <v>47482</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36453</v>
+        <v>36053</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60665</v>
+        <v>62659</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0721132605438691</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05536340234457696</v>
+        <v>0.05475624346580216</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09213502189713124</v>
+        <v>0.09516416432210201</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>443767</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>432408</v>
+        <v>431633</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>452910</v>
+        <v>452497</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9409569861824532</v>
+        <v>0.940956986182453</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9168728333424949</v>
+        <v>0.915228780072402</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9603454236502608</v>
+        <v>0.9594694371959062</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>256</v>
@@ -6553,19 +6553,19 @@
         <v>167183</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>159712</v>
+        <v>159552</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>173762</v>
+        <v>173846</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8948918596760655</v>
+        <v>0.8948918596760653</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8549047218041292</v>
+        <v>0.8540464198452126</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.930108922947828</v>
+        <v>0.9305609986026222</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>715</v>
@@ -6574,19 +6574,19 @@
         <v>610949</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>597766</v>
+        <v>595772</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>621978</v>
+        <v>622378</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9278867394561309</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9078649781028685</v>
+        <v>0.9048358356778982</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.944636597655423</v>
+        <v>0.945243756534198</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>49314</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37410</v>
+        <v>38011</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63449</v>
+        <v>62429</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0435700568819687</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03305185717301472</v>
+        <v>0.03358338017590336</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05605810494650287</v>
+        <v>0.05515650270541352</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>106</v>
@@ -6699,19 +6699,19 @@
         <v>67234</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56200</v>
+        <v>55073</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82152</v>
+        <v>81196</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07815340317997241</v>
+        <v>0.07815340317997239</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06532704472034609</v>
+        <v>0.06401759613241055</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09549435122680343</v>
+        <v>0.09438326797840954</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>163</v>
@@ -6720,19 +6720,19 @@
         <v>116549</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100733</v>
+        <v>100385</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>136073</v>
+        <v>137101</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05850459897003009</v>
+        <v>0.0585045989700301</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05056540244280996</v>
+        <v>0.05039100422605718</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06830557598246847</v>
+        <v>0.06882135491052301</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1082529</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1068394</v>
+        <v>1069414</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1094433</v>
+        <v>1093832</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9564299431180313</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9439418950534971</v>
+        <v>0.9448434972945864</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9669481428269854</v>
+        <v>0.9664166198240969</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1122</v>
@@ -6770,19 +6770,19 @@
         <v>793050</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>778132</v>
+        <v>779088</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>804084</v>
+        <v>805211</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9218465968200276</v>
+        <v>0.9218465968200275</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9045056487731965</v>
+        <v>0.9056167320215903</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9346729552796538</v>
+        <v>0.9359824038675895</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2183</v>
@@ -6791,19 +6791,19 @@
         <v>1875578</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1856054</v>
+        <v>1855026</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1891394</v>
+        <v>1891742</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9414954010299698</v>
+        <v>0.9414954010299699</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9316944240175316</v>
+        <v>0.9311786450894767</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9494345975571902</v>
+        <v>0.9496089957739426</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>31984</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22458</v>
+        <v>22416</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05646037254821072</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03964491454090512</v>
+        <v>0.03957019535673134</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07996692224901743</v>
+        <v>0.07996427115666635</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>161</v>
@@ -6916,19 +6916,19 @@
         <v>91563</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>78198</v>
+        <v>77568</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105930</v>
+        <v>105937</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1102998640484119</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09419982228499596</v>
+        <v>0.09344129427586736</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1276073573248729</v>
+        <v>0.1276155067118186</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>196</v>
@@ -6937,19 +6937,19 @@
         <v>123547</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>106987</v>
+        <v>107041</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141608</v>
+        <v>142699</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08846192072480905</v>
+        <v>0.08846192072480902</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07660521756485186</v>
+        <v>0.07664343599396009</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.101394503362914</v>
+        <v>0.1021756192174579</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>534497</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>521181</v>
+        <v>521183</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>544023</v>
+        <v>544065</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9435396274517893</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9200330777509828</v>
+        <v>0.9200357288433337</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9603550854590951</v>
+        <v>0.9604298046432689</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1128</v>
@@ -6987,19 +6987,19 @@
         <v>738564</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>724197</v>
+        <v>724190</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>751929</v>
+        <v>752559</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8897001359515881</v>
+        <v>0.889700135951588</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8723926426751273</v>
+        <v>0.8723844932881812</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.905800177715004</v>
+        <v>0.9065587057241326</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1638</v>
@@ -7008,19 +7008,19 @@
         <v>1273061</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1255000</v>
+        <v>1253909</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1289621</v>
+        <v>1289567</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.911538079275191</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8986054966370859</v>
+        <v>0.8978243807825421</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9233947824351481</v>
+        <v>0.92335656400604</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>6609</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2580</v>
+        <v>2721</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14627</v>
+        <v>14356</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02785988335116702</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01087518251929283</v>
+        <v>0.01146826091742629</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06165750757953345</v>
+        <v>0.06051589552076989</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>140</v>
@@ -7133,19 +7133,19 @@
         <v>86652</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>72471</v>
+        <v>72698</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>102385</v>
+        <v>102198</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.102790953995054</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0859688712700379</v>
+        <v>0.08623778947156753</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1214543339949212</v>
+        <v>0.1212328850339253</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>147</v>
@@ -7154,19 +7154,19 @@
         <v>93261</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79048</v>
+        <v>78504</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>111229</v>
+        <v>111409</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.08633530917361644</v>
+        <v>0.08633530917361641</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07317750761208468</v>
+        <v>0.07267386376466226</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1029686565471427</v>
+        <v>0.1031351455435058</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>230619</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>222601</v>
+        <v>222872</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234648</v>
+        <v>234507</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.972140116648833</v>
+        <v>0.9721401166488329</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9383424924204671</v>
+        <v>0.9394841044792301</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9891248174807074</v>
+        <v>0.9885317390825737</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1017</v>
@@ -7204,19 +7204,19 @@
         <v>756341</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>740608</v>
+        <v>740795</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>770522</v>
+        <v>770295</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8972090460049459</v>
+        <v>0.8972090460049458</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.878545666005079</v>
+        <v>0.8787671149660746</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9140311287299624</v>
+        <v>0.9137622105284329</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1122</v>
@@ -7225,19 +7225,19 @@
         <v>986960</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>968992</v>
+        <v>968812</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1001173</v>
+        <v>1001717</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9136646908263837</v>
+        <v>0.9136646908263834</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8970313434528574</v>
+        <v>0.8968648544564938</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9268224923879159</v>
+        <v>0.9273261362353371</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>149658</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>128589</v>
+        <v>130533</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>174363</v>
+        <v>175632</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04349279256370053</v>
+        <v>0.04349279256370052</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03736967766893463</v>
+        <v>0.03793472151572915</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05067226200732884</v>
+        <v>0.05104094026187352</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>500</v>
@@ -7350,19 +7350,19 @@
         <v>306500</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>278300</v>
+        <v>280441</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>331341</v>
+        <v>335559</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.08439401474631458</v>
+        <v>0.08439401474631456</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07662906945208998</v>
+        <v>0.07721856775722949</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09123396354511028</v>
+        <v>0.09239512931391686</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>666</v>
@@ -7371,19 +7371,19 @@
         <v>456159</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>417598</v>
+        <v>423395</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>493869</v>
+        <v>494166</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06449504642364437</v>
+        <v>0.06449504642364436</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05904303637415281</v>
+        <v>0.05986274205696376</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06982683358240936</v>
+        <v>0.06986873026720415</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3291335</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3266630</v>
+        <v>3265361</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3312404</v>
+        <v>3310460</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9565072074362995</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.949327737992671</v>
+        <v>0.9489590597381264</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9626303223310654</v>
+        <v>0.9620652784842707</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4738</v>
@@ -7421,19 +7421,19 @@
         <v>3325277</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3300436</v>
+        <v>3296218</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3353477</v>
+        <v>3351336</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9156059852536854</v>
+        <v>0.9156059852536853</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9087660364548896</v>
+        <v>0.9076048706860835</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9233709305479101</v>
+        <v>0.9227814322427708</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7870</v>
@@ -7442,19 +7442,19 @@
         <v>6616612</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6578902</v>
+        <v>6578605</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6655173</v>
+        <v>6649376</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9355049535763557</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9301731664175904</v>
+        <v>0.9301312697327957</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.940956963625847</v>
+        <v>0.9401372579430363</v>
       </c>
     </row>
     <row r="24">
